--- a/medicine/Enfance/François_David_(écrivain)/François_David_(écrivain).xlsx
+++ b/medicine/Enfance/François_David_(écrivain)/François_David_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_David_(%C3%A9crivain)</t>
+          <t>François_David_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François David, né le 24 janvier 1950, est un écrivain français, auteur de littérature jeunesse, éditeur et fondateur des éditions Møtus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_David_(%C3%A9crivain)</t>
+          <t>François_David_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fondateur de la revue littéraire sur cassettes V O I X/E/S réunissant auteurs, comédiens, musiciens, illustrateurs.
 Il crée ensuite, en 1988, les éditions møtus qui publient d’abord de la poésie brève contemporaine, proche du haïku. Depuis 1992, les éditions møtus se consacrent principalement à la littérature jeunesse, dont des albums mis en images par divers illustrateurs reconnus, tels André François, Anne Herbauts ou Éric Battut.
 Il écrit dans des genres différents (poésie, conte, nouvelles, roman, théâtre…) et pour des publics très divers.
 Plusieurs de ses textes non théâtraux ont été adaptés pour la scène.
 Ses livres sont traduits dans de nombreuses langues. François David a reçu le 50e prix littéraire du Cotentin.
-Pour les illustrations de son ouvrage Est-elle Estelle ?, Alain Gauthier a reçu la Plaque d'Or de Bratislava[1] en 2005, à la Biennale d'illustration de Bratislava.
-Il a reçu par deux fois le Prix Joël Sadeler de poésie jeunesse, en 2003 et 2013[2]. 
-Il vit dans le Cotentin et a plusieurs enfants[3]. Il fait partie de la Charte des auteurs et des illustrateurs jeunesse[3].
+Pour les illustrations de son ouvrage Est-elle Estelle ?, Alain Gauthier a reçu la Plaque d'Or de Bratislava en 2005, à la Biennale d'illustration de Bratislava.
+Il a reçu par deux fois le Prix Joël Sadeler de poésie jeunesse, en 2003 et 2013. 
+Il vit dans le Cotentin et a plusieurs enfants. Il fait partie de la Charte des auteurs et des illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_David_(%C3%A9crivain)</t>
+          <t>François_David_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991 : Le Soleil bleu, illustrations de Christophe Robe, Møtus
 1992 : Un grain de sel dans les étoiles, illustrations de Gilles Pennaneac'h, Motus
@@ -599,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_David_(%C3%A9crivain)</t>
+          <t>François_David_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -617,10 +633,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Joël Sadeler 2003[2] pour Le Calumet de la paix, illustrations d'André François.
-Prix Joël Sadeler 2013[2] pour Un rêve sans faim, illustrations de Olivier Thiébaut</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Joël Sadeler 2003 pour Le Calumet de la paix, illustrations d'André François.
+Prix Joël Sadeler 2013 pour Un rêve sans faim, illustrations de Olivier Thiébaut</t>
         </is>
       </c>
     </row>
